--- a/results_cnn_subnetworks_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetworks_evaluation/pcc/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_cnn_subnetworks_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F078AFD0-111C-4349-AB12-C253D78D86D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4DD815-8893-447D-A36D-EDE78E77D840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="7" r:id="rId1"/>
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A4F61-1775-4DB3-88C0-0BBD01C719D4}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -7265,7 +7265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC9EEA-1E80-435E-8234-12C5E84FAAAA}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/results_cnn_subnetworks_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetworks_evaluation/pcc/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_cnn_subnetworks_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4DD815-8893-447D-A36D-EDE78E77D840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E2E3D-F1A5-43B1-8357-D30ECD138254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="7" r:id="rId1"/>
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A4F61-1775-4DB3-88C0-0BBD01C719D4}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -7265,7 +7265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CC9EEA-1E80-435E-8234-12C5E84FAAAA}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
